--- a/Base/Teams/Seahawks/Distributions.xlsx
+++ b/Base/Teams/Seahawks/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(3.3219974652881517, 1.336050147257846, -0.698954035801532, 2.813527037647897)</t>
-  </si>
-  <si>
-    <t>NIG(0.8604446808631034, 0.7016704928572284, 4.289685303035705, 5.5031752158581195)</t>
-  </si>
-  <si>
-    <t>JSU(-1.0746802969291211, 1.2875988678609573, 0.5116206368936991, 2.7899550745630775)</t>
-  </si>
-  <si>
-    <t>JSU(-0.957811687988816, 1.2165893764747353, 4.442211941932681, 4.884212605478073)</t>
+    <t>NCT(3.227503097112204, 1.2890378437288557, -0.5844423274903815, 2.7566710003242245)</t>
+  </si>
+  <si>
+    <t>NCT(2.409890526477934, 1.8690899162817805, -1.2119912955382084, 4.479272849903968)</t>
+  </si>
+  <si>
+    <t>EXN(2.2819188258675425, 0.3401527688869619, 1.6210164165698024)</t>
+  </si>
+  <si>
+    <t>NIG(1.046255749221365, 0.7312492328597713, 5.611919673700837, 5.213186116445202)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Seahawks/Distributions.xlsx
+++ b/Base/Teams/Seahawks/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(3.227503097112204, 1.2890378437288557, -0.5844423274903815, 2.7566710003242245)</t>
-  </si>
-  <si>
-    <t>NCT(2.409890526477934, 1.8690899162817805, -1.2119912955382084, 4.479272849903968)</t>
-  </si>
-  <si>
-    <t>EXN(2.2819188258675425, 0.3401527688869619, 1.6210164165698024)</t>
-  </si>
-  <si>
-    <t>NIG(1.046255749221365, 0.7312492328597713, 5.611919673700837, 5.213186116445202)</t>
+    <t>NCT(2.9020979004458534, 1.2629696074199597, -0.5052416671458982, 2.7667445119319796)</t>
+  </si>
+  <si>
+    <t>NIG(1.0918022350261651, 0.9040073947564247, 3.3551220385533287, 5.684550655994077)</t>
+  </si>
+  <si>
+    <t>NCT(3.431552188186929, 1.5072548954658505, -0.6637997885330891, 2.296524586821742)</t>
+  </si>
+  <si>
+    <t>NIG(1.0529047686233677, 0.7107511552118035, 5.798773274556774, 5.320410267797112)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Seahawks/Distributions.xlsx
+++ b/Base/Teams/Seahawks/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.9020979004458534, 1.2629696074199597, -0.5052416671458982, 2.7667445119319796)</t>
-  </si>
-  <si>
-    <t>NIG(1.0918022350261651, 0.9040073947564247, 3.3551220385533287, 5.684550655994077)</t>
-  </si>
-  <si>
-    <t>NCT(3.431552188186929, 1.5072548954658505, -0.6637997885330891, 2.296524586821742)</t>
-  </si>
-  <si>
-    <t>NIG(1.0529047686233677, 0.7107511552118035, 5.798773274556774, 5.320410267797112)</t>
+    <t>NCT(2.6544228876835514, 1.2261136499182372, -0.20512550369447885, 2.661927039588663)</t>
+  </si>
+  <si>
+    <t>NIG(1.0124955062342962, 0.8202285279714585, 3.648492238598287, 5.735027511786299)</t>
+  </si>
+  <si>
+    <t>NCT(3.2171879923591855, 1.475521859453918, -0.7749043550901462, 2.3496400526336663)</t>
+  </si>
+  <si>
+    <t>NIG(1.2105011444355092, 0.8165292680338047, 5.46267382296954, 5.7592349157177924)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Seahawks/Distributions.xlsx
+++ b/Base/Teams/Seahawks/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.6544228876835514, 1.2261136499182372, -0.20512550369447885, 2.661927039588663)</t>
-  </si>
-  <si>
-    <t>NIG(1.0124955062342962, 0.8202285279714585, 3.648492238598287, 5.735027511786299)</t>
-  </si>
-  <si>
-    <t>NCT(3.2171879923591855, 1.475521859453918, -0.7749043550901462, 2.3496400526336663)</t>
-  </si>
-  <si>
-    <t>NIG(1.2105011444355092, 0.8165292680338047, 5.46267382296954, 5.7592349157177924)</t>
+    <t>NCT(2.511289113398383, 1.3486432352281819, -0.5118117728483328, 2.6363948226455776)</t>
+  </si>
+  <si>
+    <t>NIG(0.9444823312261025, 0.7519503641150205, 3.964639888727289, 5.793692820531108)</t>
+  </si>
+  <si>
+    <t>NCT(2.992262237553456, 1.489604146397591, -0.8470358811827754, 2.3104717216487742)</t>
+  </si>
+  <si>
+    <t>NIG(1.2361789815788045, 0.8477144170167379, 5.36855162485538, 5.7259158785691655)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Seahawks/Distributions.xlsx
+++ b/Base/Teams/Seahawks/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.511289113398383, 1.3486432352281819, -0.5118117728483328, 2.6363948226455776)</t>
-  </si>
-  <si>
-    <t>NIG(0.9444823312261025, 0.7519503641150205, 3.964639888727289, 5.793692820531108)</t>
-  </si>
-  <si>
-    <t>NCT(2.992262237553456, 1.489604146397591, -0.8470358811827754, 2.3104717216487742)</t>
-  </si>
-  <si>
-    <t>NIG(1.2361789815788045, 0.8477144170167379, 5.36855162485538, 5.7259158785691655)</t>
+    <t>NCT(2.3800114516276167, 1.376019635617475, -0.5493296410636643, 2.5855754859949345)</t>
+  </si>
+  <si>
+    <t>NIG(1.0501168038679465, 0.843168967667512, 3.735646409005841, 5.976638112342744)</t>
+  </si>
+  <si>
+    <t>NCT(3.0291706242121723, 1.4961017483071146, -0.8874824656087534, 2.3493341870267344)</t>
+  </si>
+  <si>
+    <t>NIG(1.1960274835144102, 0.7972177607562063, 5.427885264097043, 5.810422201562057)</t>
   </si>
 </sst>
 </file>
